--- a/Code/Data/DAX30/Compared Returns/Manual Recurrence/input 125/DAX30_returns_compared_annual.xlsx
+++ b/Code/Data/DAX30/Compared Returns/Manual Recurrence/input 125/DAX30_returns_compared_annual.xlsx
@@ -501,13 +501,13 @@
         <v>0.131420741763922</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1547567649384625</v>
+        <v>0.10559013179121</v>
       </c>
       <c r="H2" t="n">
-        <v>17.7567276377577</v>
+        <v>-19.65489589087305</v>
       </c>
       <c r="I2" t="n">
-        <v>-19.33441168535043</v>
+        <v>3.117300874808048</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.0890371962957979</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08808861043974209</v>
+        <v>0.1058412693455825</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.065381543354572</v>
+        <v>18.87309321146904</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>-0.615343435918332</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.5617821709827473</v>
+        <v>-0.5537239187016033</v>
       </c>
       <c r="H4" t="n">
-        <v>-8.704288013676525</v>
+        <v>10.01384164028147</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.6105932447668134</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.6874088845711105</v>
+        <v>-0.6266074489483778</v>
       </c>
       <c r="H5" t="n">
-        <v>12.580492899759</v>
+        <v>-2.622728685391902</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.2461077835218171</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2066374060875065</v>
+        <v>0.2206606219079868</v>
       </c>
       <c r="H6" t="n">
-        <v>-16.03784198512015</v>
+        <v>-10.33984429491822</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.1638219427486889</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2599412694188773</v>
+        <v>0.2406162607008728</v>
       </c>
       <c r="H7" t="n">
-        <v>58.67304773551629</v>
+        <v>46.87669836145837</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>0.165308928384769</v>
       </c>
       <c r="G8" t="n">
-        <v>0.07796153811053955</v>
+        <v>0.07863868342346461</v>
       </c>
       <c r="H8" t="n">
-        <v>-52.83888240502159</v>
+        <v>-52.42925824282936</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>0.1950925388973966</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2227962562095962</v>
+        <v>0.2005975577787466</v>
       </c>
       <c r="H9" t="n">
-        <v>14.2002956488098</v>
+        <v>2.821747521695436</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.05714634763265068</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1211140318037889</v>
+        <v>-0.1458836242684984</v>
       </c>
       <c r="H10" t="n">
-        <v>111.9366098115956</v>
+        <v>-155.2807490100163</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.1187683230189159</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1450461245477259</v>
+        <v>-0.1274916552796612</v>
       </c>
       <c r="H11" t="n">
-        <v>22.12526106361272</v>
+        <v>-7.344830708231812</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>0.1590292857940055</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2079524801864004</v>
+        <v>0.1819993308417833</v>
       </c>
       <c r="H12" t="n">
-        <v>30.76363837524008</v>
+        <v>14.44390882666194</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>0.2056617473000462</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2123747120094984</v>
+        <v>0.2401270006740394</v>
       </c>
       <c r="H13" t="n">
-        <v>3.26408036379194</v>
+        <v>16.75822257977357</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>0.1893730763108184</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2197569868218955</v>
+        <v>0.2015489830203613</v>
       </c>
       <c r="H14" t="n">
-        <v>16.04447216203424</v>
+        <v>6.429587007161763</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>0.2499054176184599</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1850610174026134</v>
+        <v>0.1805776681175887</v>
       </c>
       <c r="H15" t="n">
-        <v>-25.94757682078222</v>
+        <v>-27.74159526494</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.03648024689456582</v>
       </c>
       <c r="G16" t="n">
-        <v>0.02122656298218817</v>
+        <v>-0.04026130921775196</v>
       </c>
       <c r="H16" t="n">
-        <v>-41.813543522508</v>
+        <v>-210.3646840278084</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.03547059004783595</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04242380798375059</v>
+        <v>0.02735981661359092</v>
       </c>
       <c r="H17" t="n">
-        <v>19.60276929855825</v>
+        <v>-22.86619259309407</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.1733142233776001</v>
       </c>
       <c r="G18" t="n">
-        <v>0.07370912920018442</v>
+        <v>0.08810829926943783</v>
       </c>
       <c r="H18" t="n">
-        <v>-57.47081355256448</v>
+        <v>-49.16268408191976</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.1257529438542189</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.03079809459438109</v>
+        <v>0.1030911084170129</v>
       </c>
       <c r="H19" t="n">
-        <v>-124.4909531740937</v>
+        <v>-18.02091843152165</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.1146520008062495</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1402859380406119</v>
+        <v>0.1187388106597019</v>
       </c>
       <c r="H20" t="n">
-        <v>22.35803741243139</v>
+        <v>3.564534264307088</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.100398825941284</v>
       </c>
       <c r="G21" t="n">
-        <v>0.08096377785341641</v>
+        <v>0.1048707132341026</v>
       </c>
       <c r="H21" t="n">
-        <v>-19.35784398438459</v>
+        <v>4.454123094461163</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.09419712915001806</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06946697460343913</v>
+        <v>0.08880714469767767</v>
       </c>
       <c r="H22" t="n">
-        <v>-26.25361809826896</v>
+        <v>-5.722026245360742</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.1084899878672966</v>
       </c>
       <c r="G23" t="n">
-        <v>0.08932610466790158</v>
+        <v>0.1347052698572944</v>
       </c>
       <c r="H23" t="n">
-        <v>-17.66419517240246</v>
+        <v>24.16377999973965</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>-0.1246243473874714</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.2175563572026421</v>
+        <v>-0.2139099522638939</v>
       </c>
       <c r="H24" t="n">
-        <v>74.56970629200923</v>
+        <v>-71.64378931415649</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>-0.2224540867233095</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.1399798605763129</v>
+        <v>-0.1925158560902323</v>
       </c>
       <c r="H25" t="n">
-        <v>-37.07471836630217</v>
+        <v>13.45816167014933</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.1589818177106323</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1727518825739199</v>
+        <v>0.1725951200400995</v>
       </c>
       <c r="H26" t="n">
-        <v>8.661408619915848</v>
+        <v>8.562804555578293</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.2004663364138392</v>
       </c>
       <c r="G27" t="n">
-        <v>0.147846135382638</v>
+        <v>0.1660360584265225</v>
       </c>
       <c r="H27" t="n">
-        <v>-26.24889643444822</v>
+        <v>-17.17509213928041</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>-0.008030450210626818</v>
       </c>
       <c r="G28" t="n">
-        <v>0.02581096266883729</v>
+        <v>0.02394492607401189</v>
       </c>
       <c r="H28" t="n">
-        <v>-421.4136442148816</v>
+        <v>398.176633264287</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>0.0153774918446412</v>
       </c>
       <c r="G29" t="n">
-        <v>0.003457186596530047</v>
+        <v>0.04444965162038098</v>
       </c>
       <c r="H29" t="n">
-        <v>-77.51787722303479</v>
+        <v>189.0565774279435</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>

--- a/Code/Data/DAX30/Compared Returns/Manual Recurrence/input 125/DAX30_returns_compared_annual.xlsx
+++ b/Code/Data/DAX30/Compared Returns/Manual Recurrence/input 125/DAX30_returns_compared_annual.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -501,13 +501,13 @@
         <v>0.131420741763922</v>
       </c>
       <c r="G2" t="n">
-        <v>0.10559013179121</v>
+        <v>0.1569408081499378</v>
       </c>
       <c r="H2" t="n">
-        <v>-19.65489589087305</v>
+        <v>19.41859865002044</v>
       </c>
       <c r="I2" t="n">
-        <v>3.117300874808048</v>
+        <v>-3.175617967186845</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.0890371962957979</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1058412693455825</v>
+        <v>0.1717004433804159</v>
       </c>
       <c r="H3" t="n">
-        <v>18.87309321146904</v>
+        <v>92.84125121145496</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>-0.615343435918332</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.5537239187016033</v>
+        <v>-0.6422546796980082</v>
       </c>
       <c r="H4" t="n">
-        <v>10.01384164028147</v>
+        <v>-4.373369765375687</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.6105932447668134</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.6266074489483778</v>
+        <v>-0.5589303733638036</v>
       </c>
       <c r="H5" t="n">
-        <v>-2.622728685391902</v>
+        <v>8.461094492249089</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.2461077835218171</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2206606219079868</v>
+        <v>0.2121750077080789</v>
       </c>
       <c r="H6" t="n">
-        <v>-10.33984429491822</v>
+        <v>-13.7877702720971</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.1638219427486889</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2406162607008728</v>
+        <v>0.3841434140024276</v>
       </c>
       <c r="H7" t="n">
-        <v>46.87669836145837</v>
+        <v>134.4883765612052</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>0.165308928384769</v>
       </c>
       <c r="G8" t="n">
-        <v>0.07863868342346461</v>
+        <v>0.1118222900081235</v>
       </c>
       <c r="H8" t="n">
-        <v>-52.42925824282936</v>
+        <v>-32.35556536435304</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>0.1950925388973966</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2005975577787466</v>
+        <v>0.2135692896278156</v>
       </c>
       <c r="H9" t="n">
-        <v>2.821747521695436</v>
+        <v>9.470762354544124</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.05714634763265068</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1458836242684984</v>
+        <v>-0.1948932169126427</v>
       </c>
       <c r="H10" t="n">
-        <v>-155.2807490100163</v>
+        <v>-241.0422975155985</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.1187683230189159</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1274916552796612</v>
+        <v>-0.1431703458337011</v>
       </c>
       <c r="H11" t="n">
-        <v>-7.344830708231812</v>
+        <v>-20.54590162976265</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>0.1590292857940055</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1819993308417833</v>
+        <v>0.1775940895285582</v>
       </c>
       <c r="H12" t="n">
-        <v>14.44390882666194</v>
+        <v>11.67382701988623</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>0.2056617473000462</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2401270006740394</v>
+        <v>0.1818157329640047</v>
       </c>
       <c r="H13" t="n">
-        <v>16.75822257977357</v>
+        <v>-11.59477377251484</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>0.1893730763108184</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2015489830203613</v>
+        <v>0.1557858288607722</v>
       </c>
       <c r="H14" t="n">
-        <v>6.429587007161763</v>
+        <v>-17.7360204018228</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>0.2499054176184599</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1805776681175887</v>
+        <v>0.2485130745104423</v>
       </c>
       <c r="H15" t="n">
-        <v>-27.74159526494</v>
+        <v>-0.5571480287567659</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.03648024689456582</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.04026130921775196</v>
+        <v>-0.007929441062452365</v>
       </c>
       <c r="H16" t="n">
-        <v>-210.3646840278084</v>
+        <v>-121.736259311429</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.03547059004783595</v>
       </c>
       <c r="G17" t="n">
-        <v>0.02735981661359092</v>
+        <v>0.01336789697259665</v>
       </c>
       <c r="H17" t="n">
-        <v>-22.86619259309407</v>
+        <v>-62.31273019544194</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.1733142233776001</v>
       </c>
       <c r="G18" t="n">
-        <v>0.08810829926943783</v>
+        <v>0.1243236406798293</v>
       </c>
       <c r="H18" t="n">
-        <v>-49.16268408191976</v>
+        <v>-28.2669141303163</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.1257529438542189</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1030911084170129</v>
+        <v>0.1688672931566585</v>
       </c>
       <c r="H19" t="n">
-        <v>-18.02091843152165</v>
+        <v>34.28496222913127</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.1146520008062495</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1187388106597019</v>
+        <v>0.1195450499911382</v>
       </c>
       <c r="H20" t="n">
-        <v>3.564534264307088</v>
+        <v>4.26773990028963</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.100398825941284</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1048707132341026</v>
+        <v>0.1141721250941084</v>
       </c>
       <c r="H21" t="n">
-        <v>4.454123094461163</v>
+        <v>13.71858587358322</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.09419712915001806</v>
       </c>
       <c r="G22" t="n">
-        <v>0.08880714469767767</v>
+        <v>0.04705371038395056</v>
       </c>
       <c r="H22" t="n">
-        <v>-5.722026245360742</v>
+        <v>-50.04761736526709</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.1084899878672966</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1347052698572944</v>
+        <v>0.07499123292960645</v>
       </c>
       <c r="H23" t="n">
-        <v>24.16377999973965</v>
+        <v>-30.87727779881895</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>-0.1246243473874714</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.2139099522638939</v>
+        <v>-0.2514461386044626</v>
       </c>
       <c r="H24" t="n">
-        <v>-71.64378931415649</v>
+        <v>-101.7632540314836</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>-0.2224540867233095</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.1925158560902323</v>
+        <v>-0.1572611063694041</v>
       </c>
       <c r="H25" t="n">
-        <v>13.45816167014933</v>
+        <v>29.3062632897336</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.1589818177106323</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1725951200400995</v>
+        <v>0.1693744719191226</v>
       </c>
       <c r="H26" t="n">
-        <v>8.562804555578293</v>
+        <v>6.537008041640522</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.2004663364138392</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1660360584265225</v>
+        <v>0.1959373634708947</v>
       </c>
       <c r="H27" t="n">
-        <v>-17.17509213928041</v>
+        <v>-2.259218691758295</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>-0.008030450210626818</v>
       </c>
       <c r="G28" t="n">
-        <v>0.02394492607401189</v>
+        <v>0.02272725869068091</v>
       </c>
       <c r="H28" t="n">
-        <v>398.176633264287</v>
+        <v>383.0135060249247</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,14 +1394,14 @@
         <v>0.0153774918446412</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04444965162038098</v>
+        <v>0.0004393102680317901</v>
       </c>
       <c r="H29" t="n">
-        <v>189.0565774279435</v>
+        <v>-97.143160455098</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>